--- a/009工作OKR/202003设计流数据一体化/filedata/设备表定位.xlsx
+++ b/009工作OKR/202003设计流数据一体化/filedata/设备表定位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17060"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>序号</t>
   </si>
@@ -48,16 +48,30 @@
   <si>
     <t>甲供</t>
   </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -74,7 +88,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,65 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -155,6 +164,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -163,13 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -178,24 +187,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -239,13 +253,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,85 +283,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,60 +427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,24 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,25 +456,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -511,17 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -536,160 +532,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,13 +1055,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A29:BP35"/>
+  <dimension ref="A29:BP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9.625"/>
+  </cols>
   <sheetData>
     <row r="29" spans="1:68">
       <c r="A29">
@@ -1318,7 +1337,7 @@
       <c r="G34">
         <v>7</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="6">
         <v>8</v>
       </c>
       <c r="I34">
@@ -1327,7 +1346,7 @@
       <c r="J34">
         <v>10</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="7">
         <v>11</v>
       </c>
       <c r="L34">
@@ -1342,7 +1361,7 @@
       <c r="O34">
         <v>15</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="6">
         <v>16</v>
       </c>
       <c r="Q34">
@@ -1360,7 +1379,7 @@
       <c r="U34">
         <v>21</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="7">
         <v>22</v>
       </c>
       <c r="W34">
@@ -1538,6 +1557,262 @@
         <v>10</v>
       </c>
       <c r="BP35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40" s="5">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7">
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>14</v>
+      </c>
+      <c r="O40" s="5">
+        <v>15</v>
+      </c>
+      <c r="P40" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q40">
+        <v>17</v>
+      </c>
+      <c r="R40">
+        <v>18</v>
+      </c>
+      <c r="S40">
+        <v>19</v>
+      </c>
+      <c r="T40">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>21</v>
+      </c>
+      <c r="V40" s="7">
+        <v>22</v>
+      </c>
+      <c r="W40">
+        <v>23</v>
+      </c>
+      <c r="X40">
+        <v>24</v>
+      </c>
+      <c r="Y40">
+        <v>25</v>
+      </c>
+      <c r="Z40">
+        <v>26</v>
+      </c>
+      <c r="AA40">
+        <v>27</v>
+      </c>
+      <c r="AB40">
+        <v>28</v>
+      </c>
+      <c r="AC40">
+        <v>29</v>
+      </c>
+      <c r="AD40">
+        <v>30</v>
+      </c>
+      <c r="AE40">
+        <v>31</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG40">
+        <v>33</v>
+      </c>
+      <c r="AH40">
+        <v>34</v>
+      </c>
+      <c r="AI40">
+        <v>35</v>
+      </c>
+      <c r="AJ40">
+        <v>36</v>
+      </c>
+      <c r="AK40">
+        <v>37</v>
+      </c>
+      <c r="AL40">
+        <v>38</v>
+      </c>
+      <c r="AM40">
+        <v>39</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO40">
+        <v>41</v>
+      </c>
+      <c r="AP40">
+        <v>42</v>
+      </c>
+      <c r="AQ40">
+        <v>43</v>
+      </c>
+      <c r="AR40">
+        <v>44</v>
+      </c>
+      <c r="AS40">
+        <v>45</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>46</v>
+      </c>
+      <c r="AU40">
+        <v>47</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>48</v>
+      </c>
+      <c r="AW40">
+        <v>49</v>
+      </c>
+      <c r="AX40">
+        <v>50</v>
+      </c>
+      <c r="AY40">
+        <v>51</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>52</v>
+      </c>
+      <c r="BA40">
+        <v>53</v>
+      </c>
+      <c r="BB40">
+        <v>54</v>
+      </c>
+      <c r="BC40">
+        <v>55</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>56</v>
+      </c>
+      <c r="BE40">
+        <v>57</v>
+      </c>
+      <c r="BF40">
+        <v>58</v>
+      </c>
+      <c r="BG40">
+        <v>59</v>
+      </c>
+      <c r="BH40" s="1">
+        <v>60</v>
+      </c>
+      <c r="BI40">
+        <v>61</v>
+      </c>
+      <c r="BJ40">
+        <v>62</v>
+      </c>
+      <c r="BK40">
+        <v>63</v>
+      </c>
+      <c r="BL40">
+        <v>64</v>
+      </c>
+      <c r="BM40">
+        <v>65</v>
+      </c>
+      <c r="BN40">
+        <v>66</v>
+      </c>
+      <c r="BO40">
+        <v>67</v>
+      </c>
+      <c r="BP40" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="AJ41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP41" s="2" t="s">
         <v>10</v>
       </c>
     </row>
